--- a/Excel/装备表.xlsx
+++ b/Excel/装备表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunshuo/Cartoon_reign/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F62BED-B535-144A-ACC4-E6BA33DD158D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6CB73D-3195-3546-88C7-AAD30B42ED44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="14">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -465,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -631,7 +631,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="4"/>
@@ -650,7 +650,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="4"/>
@@ -669,7 +669,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="4"/>
@@ -688,7 +688,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="4"/>
@@ -707,7 +707,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="4"/>
@@ -726,10 +726,112 @@
         <v>6</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" ht="16">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="4">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="4">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="4">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="4">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Excel/装备表.xlsx
+++ b/Excel/装备表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunshuo/Cartoon_reign/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6CB73D-3195-3546-88C7-AAD30B42ED44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D419237F-211B-264E-B502-3715F5F6207D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,15 +63,71 @@
     <t>equip_5</t>
   </si>
   <si>
-    <t>装备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>equip_6</t>
   </si>
   <si>
     <t>equip_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备7</t>
+  </si>
+  <si>
+    <t>装备8</t>
+  </si>
+  <si>
+    <t>装备9</t>
+  </si>
+  <si>
+    <t>装备10</t>
+  </si>
+  <si>
+    <t>装备11</t>
+  </si>
+  <si>
+    <t>装备12</t>
+  </si>
+  <si>
+    <t>装备13</t>
+  </si>
+  <si>
+    <t>装备14</t>
+  </si>
+  <si>
+    <t>装备15</t>
+  </si>
+  <si>
+    <t>装备16</t>
+  </si>
+  <si>
+    <t>装备17</t>
+  </si>
+  <si>
+    <t>装备18</t>
   </si>
 </sst>
 </file>
@@ -468,7 +524,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -511,7 +567,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -530,7 +586,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4">
         <v>2</v>
@@ -549,7 +605,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4">
         <v>3</v>
@@ -568,7 +624,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4">
         <v>4</v>
@@ -587,7 +643,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4">
         <v>5</v>
@@ -603,10 +659,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D7" s="4">
         <v>6</v>
@@ -622,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -644,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
@@ -663,7 +719,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D10" s="4">
         <v>3</v>
@@ -682,7 +738,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4">
         <v>4</v>
@@ -701,7 +757,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D12" s="4">
         <v>5</v>
@@ -717,10 +773,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D13" s="4">
         <v>6</v>
@@ -736,10 +792,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -756,7 +812,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
@@ -773,7 +829,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D16" s="4">
         <v>3</v>
@@ -790,7 +846,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D17" s="4">
         <v>4</v>
@@ -807,7 +863,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D18" s="4">
         <v>5</v>
@@ -821,10 +877,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D19" s="4">
         <v>6</v>
